--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -1071,6 +1071,127 @@
         <v>121222</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>121212</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M11" t="n">
+        <v>123333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>123132</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Загран паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>896669</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M12" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8914904553511</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -1192,6 +1192,586 @@
         <v>8914904553511</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.12.2023</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>121212</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M13" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N13" t="n">
+        <v>89149045535</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.12.2023</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20.12.2023</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>123456</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1233</v>
+      </c>
+      <c r="M14" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>89149045535</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Загран паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20.12.2023</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>21321</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1222</v>
+      </c>
+      <c r="M15" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N15" t="n">
+        <v>89149045535</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.11.2023</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>123456</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1222</v>
+      </c>
+      <c r="M16" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N16" t="n">
+        <v>89149045535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.12.2023</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>213212</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1233</v>
+      </c>
+      <c r="M17" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23232323</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>qwd</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>qwd</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20.12.2023</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>21321</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1222</v>
+      </c>
+      <c r="M18" t="n">
+        <v>123333</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fwefw</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05.12.2023</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>123333</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>wefwef</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>21321</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>380670</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>89149045535</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>89149045535</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>мясников</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>михаил</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.11.2023</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>г Иркутск</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Советская</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Паспорт РФ</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделом Уфмс по ивановской области </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
